--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">processador i5 10 geracao</t>
   </si>
@@ -71,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -92,13 +83,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,13 +127,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -169,81 +149,70 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">placa de vídeo rx 5500</t>
   </si>
   <si>
-    <t xml:space="preserve">ddr4 16gb memória</t>
+    <t xml:space="preserve">memória ram ddr4 16gb</t>
   </si>
   <si>
     <t xml:space="preserve">ssd kingston 512gb</t>
@@ -152,10 +152,10 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.38"/>
   </cols>

--- a/Lista.xlsx
+++ b/Lista.xlsx
@@ -22,37 +22,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t xml:space="preserve">processador i5 10 geracao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">placa mãe asus tuf gaming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">placa de vídeo rx 5500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">memória ram ddr4 16gb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssd kingston 512gb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fonte corsair 550w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gabinete cooler master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teclado corsair k70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mouse logitech g502 hero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">headset jbl quantum 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monitor acer 100hz</t>
+    <t xml:space="preserve">Processador gamer Intel Core i5-10400F BX8070110400F de 6 núcleos e 4.3GHz de frequência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placa Mãe Asus Para Intel 1700 Z690 Plus D4 Tuf 4ddr4 Atx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placa De Video Mancer Rx 5500 Xt Streaky, 8gb, Gddr6 128 Bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memória RAM NB BLACK color preto 16GB 1 UP Gamer UP3200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disco Sólido Interno Kingston Skc600/512g 512gb Preto Cor Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonte de alimentação para PC Corsair CV Series CV550 550W black 100V/240V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabinete Gamer Cooler Master Elite 300 Lateral Vidro Preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teclado Corsair K55 Rgb Multicolor Led</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouse Logitech G G Series G502 Hero preto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor Acer 21.5 Zero Frame Radeon Hdmi Ea220q Hbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Headset Gamer Para Consoles E Pc Driver 40mm Quantum 100 Preto Jbl</t>
   </si>
 </sst>
 </file>
@@ -152,12 +152,13 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
